--- a/atividade-4/ms/cruise_data.xlsx
+++ b/atividade-4/ms/cruise_data.xlsx
@@ -441,57 +441,57 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Destino</t>
+          <t>destino</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Origem</t>
+          <t>origem</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Nome do Cruzeiro</t>
+          <t>nome_do_cruzeiro</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Porto Embarque</t>
+          <t>porto_embarque</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Porto Desembarque</t>
+          <t>porto_desembarque</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Nome do Navio</t>
+          <t>nome_navio</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Quantidade de Noites</t>
+          <t>quantidade_noites</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Lugares Visitados</t>
+          <t>lugares_visitados</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Número de Cabines</t>
+          <t>numero_cabines</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Valor por Pessoa (R$)</t>
+          <t>valor_pessoa</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Data de Embarque</t>
+          <t>data_embarque</t>
         </is>
       </c>
     </row>

--- a/atividade-4/ms/cruise_data.xlsx
+++ b/atividade-4/ms/cruise_data.xlsx
@@ -808,7 +808,7 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="K7" t="n">
         <v>8700</v>
@@ -1024,7 +1024,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1100</v>
+        <v>1103</v>
       </c>
       <c r="K11" t="n">
         <v>38356</v>

--- a/atividade-4/ms/cruise_data.xlsx
+++ b/atividade-4/ms/cruise_data.xlsx
@@ -592,7 +592,7 @@
         </is>
       </c>
       <c r="J3" t="n">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="K3" t="n">
         <v>7900</v>
@@ -646,7 +646,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1200</v>
+        <v>1203</v>
       </c>
       <c r="K4" t="n">
         <v>3800</v>
@@ -862,7 +862,7 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>3000</v>
+        <v>3002</v>
       </c>
       <c r="K8" t="n">
         <v>9200</v>
@@ -1024,7 +1024,7 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>1103</v>
+        <v>1119</v>
       </c>
       <c r="K11" t="n">
         <v>38356</v>
